--- a/static/files/ejercicio1_b1.xlsx
+++ b/static/files/ejercicio1_b1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\CALA-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A319D10-2F96-4E96-AA71-1D01A774166D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41226623-C223-4884-A4D8-2FA4BDDEF6E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="14115" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>numero de pedido</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1A</t>
   </si>
   <si>
     <t>Tipo de pedido</t>
@@ -91,7 +103,16 @@
     <t xml:space="preserve"> juguete </t>
   </si>
   <si>
+    <t xml:space="preserve"> JUGUETE </t>
+  </si>
+  <si>
     <t>SIN INFO</t>
+  </si>
+  <si>
+    <t>ELEC TROD OME STI CO</t>
+  </si>
+  <si>
+    <t>ELECT RODO MES TI CO</t>
   </si>
   <si>
     <t>SIN_INFO</t>
@@ -495,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,13 +535,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,16 +550,16 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(19292,99999)</f>
-        <v>53856</v>
+        <v>26793</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,17 +567,17 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B28" ca="1" si="0">RANDBETWEEN(19292,99999)</f>
-        <v>81530</v>
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(19292,99999)</f>
+        <v>26465</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,10 +586,10 @@
       </c>
       <c r="B4">
         <f ca="1">B3</f>
-        <v>81530</v>
+        <v>26465</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <f>D3</f>
@@ -581,10 +602,10 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>59087</v>
+        <v>47519</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>789</v>
@@ -596,10 +617,10 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>91816</v>
+        <v>43570</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>123</v>
@@ -611,10 +632,10 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>30183</v>
+        <v>49390</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>176</v>
@@ -626,10 +647,10 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>92282</v>
+        <v>21777</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>456</v>
@@ -641,10 +662,10 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>52246</v>
+        <v>28752</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>789</v>
@@ -653,10 +674,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>83647</v>
+        <v>51945</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>123</v>
@@ -668,10 +689,10 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>82907</v>
+        <v>36621</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>176</v>
@@ -683,10 +704,10 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>27104</v>
+        <v>34265</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>789</v>
@@ -695,10 +716,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>27063</v>
+        <v>95429</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>176</v>
@@ -710,10 +731,10 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>49715</v>
+        <v>85465</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>789</v>
@@ -725,10 +746,10 @@
       </c>
       <c r="B15">
         <f ca="1">B12</f>
-        <v>27104</v>
+        <v>34265</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>789</v>
@@ -740,10 +761,10 @@
       </c>
       <c r="B16">
         <f ca="1">B11</f>
-        <v>82907</v>
+        <v>36621</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>456</v>
@@ -755,10 +776,10 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>25594</v>
+        <v>71035</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>123</v>
@@ -770,10 +791,10 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>86083</v>
+        <v>80171</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>789</v>
@@ -785,10 +806,10 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>34295</v>
+        <v>33122</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>789</v>
@@ -800,10 +821,10 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>53474</v>
+        <v>42409</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>456</v>
@@ -815,10 +836,10 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>84241</v>
+        <v>47743</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>456</v>
@@ -830,10 +851,10 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>23293</v>
+        <v>50082</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>123</v>
@@ -845,10 +866,10 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>40739</v>
+        <v>67859</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>789</v>
@@ -860,10 +881,10 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>38798</v>
+        <v>88346</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>456</v>
@@ -875,10 +896,10 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>90226</v>
+        <v>77622</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>789</v>
@@ -890,10 +911,10 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>76814</v>
+        <v>34775</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>176</v>
@@ -905,10 +926,10 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>38229</v>
+        <v>45533</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>176</v>
@@ -920,13 +941,2776 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>61750</v>
+        <v>78918</v>
       </c>
       <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>76428</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39033</v>
+      </c>
+      <c r="D30">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>48415</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>51755</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>68936</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>51598</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>74007</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>27385</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>99248</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>39049</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>56255</v>
+      </c>
+      <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D28">
-        <v>123</v>
+      <c r="D39">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>90776</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>95905</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>73771</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>76026</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>66858</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>84378</v>
+      </c>
+      <c r="D45">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>22624</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>97043</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>57009</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>25148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>31539</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>54429</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>81268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>73488</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>46667</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>65517</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>61516</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>60993</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>58717</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>24883</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>30829</v>
+      </c>
+      <c r="D60">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>28154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>86447</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>99306</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>93577</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>46619</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>22097</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" ca="1" si="1">RANDBETWEEN(19292,99999)</f>
+        <v>84177</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="1"/>
+        <v>46489</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="1"/>
+        <v>73922</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="1"/>
+        <v>71173</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="1"/>
+        <v>89996</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="1"/>
+        <v>72679</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="1"/>
+        <v>19525</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="1"/>
+        <v>91834</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="1"/>
+        <v>77862</v>
+      </c>
+      <c r="D75">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="1"/>
+        <v>44202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>71</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="1"/>
+        <v>54654</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>72</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="1"/>
+        <v>21646</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="1"/>
+        <v>79275</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>74</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="1"/>
+        <v>65783</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>75</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="1"/>
+        <v>47650</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>76</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="1"/>
+        <v>90102</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>77</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="1"/>
+        <v>73080</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="1"/>
+        <v>86745</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>79</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="1"/>
+        <v>50741</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>80</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="1"/>
+        <v>80610</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>81</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="1"/>
+        <v>66290</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>82</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="1"/>
+        <v>88665</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>83</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="1"/>
+        <v>65880</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>84</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="1"/>
+        <v>50561</v>
+      </c>
+      <c r="D90">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="1"/>
+        <v>45142</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>86</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="1"/>
+        <v>93683</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>87</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="1"/>
+        <v>63452</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>88</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="1"/>
+        <v>55569</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>89</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="1"/>
+        <v>59853</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>90</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="1"/>
+        <v>55380</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>91</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="1"/>
+        <v>42581</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>92</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="1"/>
+        <v>48043</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>93</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="1"/>
+        <v>38839</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>94</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="1"/>
+        <v>68473</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>95</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="1"/>
+        <v>68597</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>96</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="1"/>
+        <v>73220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>97</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="1"/>
+        <v>94828</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>98</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="1"/>
+        <v>31080</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="1"/>
+        <v>53966</v>
+      </c>
+      <c r="D105">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>100</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="1"/>
+        <v>26472</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>101</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="1"/>
+        <v>88165</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>102</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="1"/>
+        <v>55158</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>103</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="1"/>
+        <v>97794</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>104</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="1"/>
+        <v>75140</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>105</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="1"/>
+        <v>54523</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>106</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="1"/>
+        <v>98942</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>107</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="1"/>
+        <v>24430</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>108</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="1"/>
+        <v>52950</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>109</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="1"/>
+        <v>66608</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>110</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="1"/>
+        <v>27400</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>111</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="1"/>
+        <v>58317</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>112</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="1"/>
+        <v>22468</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>113</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="1"/>
+        <v>94402</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>114</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="1"/>
+        <v>67778</v>
+      </c>
+      <c r="D120">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>115</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="1"/>
+        <v>40981</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <f t="shared" ca="1" si="1"/>
+        <v>51126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>117</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="1"/>
+        <v>55601</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>118</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="1"/>
+        <v>37022</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>119</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="1"/>
+        <v>92092</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>120</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="1"/>
+        <v>26196</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>121</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="1"/>
+        <v>54979</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>122</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="1"/>
+        <v>48567</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>123</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="1"/>
+        <v>66819</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>124</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="1"/>
+        <v>67895</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>125</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B194" ca="1" si="2">RANDBETWEEN(19292,99999)</f>
+        <v>22293</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>126</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="2"/>
+        <v>22467</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>127</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="2"/>
+        <v>82316</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>128</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="2"/>
+        <v>73388</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>129</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="2"/>
+        <v>90377</v>
+      </c>
+      <c r="D135">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>130</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ca="1" si="2"/>
+        <v>54507</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>131</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="2"/>
+        <v>95213</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>132</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="2"/>
+        <v>21530</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>133</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="2"/>
+        <v>84231</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>134</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="2"/>
+        <v>35996</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>135</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="2"/>
+        <v>91624</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>136</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ca="1" si="2"/>
+        <v>51695</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>137</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ca="1" si="2"/>
+        <v>82322</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>138</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ca="1" si="2"/>
+        <v>85060</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>139</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ca="1" si="2"/>
+        <v>43789</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>140</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ca="1" si="2"/>
+        <v>42817</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>141</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ca="1" si="2"/>
+        <v>28794</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>142</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ca="1" si="2"/>
+        <v>86029</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>143</v>
+      </c>
+      <c r="B149">
+        <f t="shared" ca="1" si="2"/>
+        <v>39416</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>144</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ca="1" si="2"/>
+        <v>52615</v>
+      </c>
+      <c r="D150">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>145</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ca="1" si="2"/>
+        <v>23883</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>146</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ca="1" si="2"/>
+        <v>71178</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ca="1" si="2"/>
+        <v>32340</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>148</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ca="1" si="2"/>
+        <v>77196</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>149</v>
+      </c>
+      <c r="B155">
+        <f t="shared" ca="1" si="2"/>
+        <v>99984</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>150</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ca="1" si="2"/>
+        <v>54807</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>151</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ca="1" si="2"/>
+        <v>74249</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>152</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ca="1" si="2"/>
+        <v>64598</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>153</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ca="1" si="2"/>
+        <v>57900</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>154</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ca="1" si="2"/>
+        <v>54186</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>155</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ca="1" si="2"/>
+        <v>39977</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>156</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ca="1" si="2"/>
+        <v>90664</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>157</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ca="1" si="2"/>
+        <v>89164</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>158</v>
+      </c>
+      <c r="B164">
+        <f t="shared" ca="1" si="2"/>
+        <v>62140</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>159</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="2"/>
+        <v>45985</v>
+      </c>
+      <c r="D165">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>160</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ca="1" si="2"/>
+        <v>40999</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>161</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ca="1" si="2"/>
+        <v>44614</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>162</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ca="1" si="2"/>
+        <v>84895</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>163</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ca="1" si="2"/>
+        <v>35111</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>164</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ca="1" si="2"/>
+        <v>84266</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>165</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ca="1" si="2"/>
+        <v>85981</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>166</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ca="1" si="2"/>
+        <v>31923</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>167</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ca="1" si="2"/>
+        <v>39068</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>168</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ca="1" si="2"/>
+        <v>29487</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>169</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ca="1" si="2"/>
+        <v>84617</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>170</v>
+      </c>
+      <c r="B176">
+        <f t="shared" ca="1" si="2"/>
+        <v>80523</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>171</v>
+      </c>
+      <c r="B177">
+        <f t="shared" ca="1" si="2"/>
+        <v>79148</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>172</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ca="1" si="2"/>
+        <v>80447</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>173</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ca="1" si="2"/>
+        <v>71342</v>
+      </c>
+      <c r="C179" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>174</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ca="1" si="2"/>
+        <v>66265</v>
+      </c>
+      <c r="D180">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>175</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ca="1" si="2"/>
+        <v>65599</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>176</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="2"/>
+        <v>24750</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>177</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="2"/>
+        <v>26839</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>178</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="2"/>
+        <v>66732</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>179</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="2"/>
+        <v>76564</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>180</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="2"/>
+        <v>50281</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>181</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="2"/>
+        <v>82085</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>182</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="2"/>
+        <v>36501</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>183</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ca="1" si="2"/>
+        <v>29347</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>184</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="2"/>
+        <v>24558</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>185</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="2"/>
+        <v>61980</v>
+      </c>
+      <c r="C191" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>186</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="2"/>
+        <v>83925</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>187</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="2"/>
+        <v>65161</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>188</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ca="1" si="2"/>
+        <v>37572</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>189</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ref="B195:B215" ca="1" si="3">RANDBETWEEN(19292,99999)</f>
+        <v>87157</v>
+      </c>
+      <c r="D195">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>190</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ca="1" si="3"/>
+        <v>56607</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>191</v>
+      </c>
+      <c r="B197">
+        <f t="shared" ca="1" si="3"/>
+        <v>82241</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>192</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ca="1" si="3"/>
+        <v>64595</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>193</v>
+      </c>
+      <c r="B199">
+        <f t="shared" ca="1" si="3"/>
+        <v>92813</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>194</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ca="1" si="3"/>
+        <v>82007</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>195</v>
+      </c>
+      <c r="B201">
+        <f t="shared" ca="1" si="3"/>
+        <v>31330</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>196</v>
+      </c>
+      <c r="B202">
+        <f t="shared" ca="1" si="3"/>
+        <v>30182</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>197</v>
+      </c>
+      <c r="B203">
+        <f t="shared" ca="1" si="3"/>
+        <v>73506</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>198</v>
+      </c>
+      <c r="B204">
+        <f t="shared" ca="1" si="3"/>
+        <v>71155</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>199</v>
+      </c>
+      <c r="B205">
+        <f t="shared" ca="1" si="3"/>
+        <v>56058</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>200</v>
+      </c>
+      <c r="B206">
+        <f t="shared" ca="1" si="3"/>
+        <v>56450</v>
+      </c>
+      <c r="C206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>201</v>
+      </c>
+      <c r="B207">
+        <f t="shared" ca="1" si="3"/>
+        <v>88278</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>202</v>
+      </c>
+      <c r="B208">
+        <f t="shared" ca="1" si="3"/>
+        <v>44647</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>203</v>
+      </c>
+      <c r="B209">
+        <f t="shared" ca="1" si="3"/>
+        <v>89229</v>
+      </c>
+      <c r="C209" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>204</v>
+      </c>
+      <c r="B210">
+        <f t="shared" ca="1" si="3"/>
+        <v>82141</v>
+      </c>
+      <c r="D210">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>205</v>
+      </c>
+      <c r="B211">
+        <f t="shared" ca="1" si="3"/>
+        <v>70036</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212">
+        <f t="shared" ca="1" si="3"/>
+        <v>93445</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213">
+        <f t="shared" ca="1" si="3"/>
+        <v>55569</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <f t="shared" ca="1" si="3"/>
+        <v>78214</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215">
+        <f t="shared" ca="1" si="3"/>
+        <v>27487</v>
+      </c>
+      <c r="C215" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
